--- a/data/materials_generator/suppliers.xlsx
+++ b/data/materials_generator/suppliers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="470">
   <si>
     <t>TOP3D</t>
   </si>
@@ -9150,6 +9150,9 @@
   </si>
   <si>
     <t>NinjaTek, www.ninjatek.com NinjaFlex</t>
+  </si>
+  <si>
+    <t>Monoprice.Com 3d printer Filament</t>
   </si>
 </sst>
 </file>
@@ -9293,7 +9296,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -9362,6 +9365,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11302,10 +11309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G253"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F255" sqref="A255:F255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13303,7 +13310,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="30">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -13727,7 +13734,7 @@
       <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" ht="45">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="20" t="s">
         <v>232</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -14049,7 +14056,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="60">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="20" t="s">
         <v>260</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -14083,7 +14090,7 @@
       <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" ht="30">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="20" t="s">
         <v>262</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -15819,7 +15826,7 @@
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" ht="103.5" thickBot="1">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="24" t="s">
         <v>449</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -15840,7 +15847,7 @@
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7" ht="65.25" thickBot="1">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="26" t="s">
         <v>450</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -15899,6 +15906,11 @@
         <v>460</v>
       </c>
       <c r="G253" s="4"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="27" t="s">
+        <v>469</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -16220,10 +16232,11 @@
     <hyperlink ref="A251" r:id="rId304" display="http://bigrep.com/"/>
     <hyperlink ref="A74" r:id="rId305"/>
     <hyperlink ref="A71" r:id="rId306"/>
+    <hyperlink ref="A255" r:id="rId307"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId307"/>
-  <drawing r:id="rId308"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId308"/>
+  <drawing r:id="rId309"/>
 </worksheet>
 </file>
 

--- a/data/materials_generator/suppliers.xlsx
+++ b/data/materials_generator/suppliers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="474">
   <si>
     <t>TOP3D</t>
   </si>
@@ -9153,6 +9153,18 @@
   </si>
   <si>
     <t>Monoprice.Com 3d printer Filament</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>refine?</t>
+  </si>
+  <si>
+    <t>need to add NGEN product line</t>
   </si>
 </sst>
 </file>
@@ -9239,7 +9251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -9288,6 +9300,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -9296,7 +9328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -9332,15 +9364,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9369,6 +9392,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11309,10 +11348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F255" sqref="A255:F255"/>
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11323,7 +11362,7 @@
     <col min="4" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>381</v>
       </c>
@@ -11342,8 +11381,14 @@
       <c r="F1" s="14" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -11359,8 +11404,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -11377,7 +11422,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:8" ht="26.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -11397,8 +11442,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -11413,8 +11458,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="39">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:8" ht="39">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -11431,8 +11476,8 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -11449,8 +11494,8 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -11469,7 +11514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
@@ -11487,8 +11532,8 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -11505,8 +11550,8 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="51.75">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:8" ht="51.75">
+      <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -11525,7 +11570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -11541,7 +11586,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="60">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -11559,8 +11604,8 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="39">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:8" ht="39">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -11576,9 +11621,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="26.25">
-      <c r="A15" s="18" t="s">
+      <c r="G14" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -11593,8 +11641,8 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="60">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:8" ht="26.25">
+      <c r="A16" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -11611,7 +11659,7 @@
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="30">
+    <row r="17" spans="1:6" ht="26.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -11629,8 +11677,8 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -11647,7 +11695,7 @@
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="60">
+    <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -11663,7 +11711,7 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="30">
+    <row r="20" spans="1:6">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -11700,7 +11748,7 @@
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="39">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -11717,8 +11765,8 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:6" ht="26.25">
+      <c r="A23" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -11736,7 +11784,7 @@
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="39">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -11754,7 +11802,7 @@
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="39">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -11772,7 +11820,7 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="39">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -11790,7 +11838,7 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="39">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>462</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -11808,7 +11856,7 @@
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -11825,8 +11873,8 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="45">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -11844,7 +11892,7 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="26.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -11862,7 +11910,7 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -11882,7 +11930,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -11900,7 +11948,7 @@
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="51.75">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -11918,7 +11966,7 @@
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -11936,7 +11984,7 @@
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -11954,7 +12002,7 @@
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="39">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -11972,7 +12020,7 @@
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="26.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -11990,7 +12038,7 @@
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="7" t="s">
@@ -12008,7 +12056,7 @@
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="7" t="s">
@@ -12026,7 +12074,7 @@
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -12043,7 +12091,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="153.75">
+    <row r="41" spans="1:6" ht="51.75">
       <c r="A41" s="7" t="s">
         <v>85</v>
       </c>
@@ -12063,8 +12111,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:6" ht="26.25">
+      <c r="A42" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -12082,7 +12130,7 @@
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -12099,8 +12147,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -12118,7 +12166,7 @@
       <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -12133,7 +12181,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="60">
+    <row r="46" spans="1:6">
       <c r="A46" s="6" t="s">
         <v>94</v>
       </c>
@@ -12153,8 +12201,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:6" ht="26.25">
+      <c r="A47" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -12172,7 +12220,7 @@
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -12189,8 +12237,8 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="45">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -12207,8 +12255,8 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -12225,8 +12273,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="19" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -12243,8 +12291,8 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B52" s="7" t="s">
@@ -12261,8 +12309,8 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="19" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -12279,8 +12327,8 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="19" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -12295,8 +12343,8 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="19" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="7" t="s">
@@ -12313,8 +12361,8 @@
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="19" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="7" t="s">
@@ -12331,8 +12379,8 @@
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -12349,8 +12397,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="60">
-      <c r="A58" s="19" t="s">
+    <row r="58" spans="1:8" ht="39">
+      <c r="A58" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -12367,8 +12415,8 @@
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="26.25">
-      <c r="A59" s="18" t="s">
+    <row r="59" spans="1:8" ht="26.25">
+      <c r="A59" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -12385,8 +12433,8 @@
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="26.25">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:8" ht="26.25">
+      <c r="A60" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -12403,8 +12451,8 @@
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:8" ht="64.5">
+      <c r="A61" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -12422,9 +12470,15 @@
       <c r="F61" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="19" t="s">
+      <c r="G61" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="16" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -12438,9 +12492,10 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="30">
-      <c r="A63" s="18" t="s">
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B63" s="7" t="s">
@@ -12457,7 +12512,7 @@
       </c>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:8" ht="26.25">
       <c r="A64" s="6" t="s">
         <v>122</v>
       </c>
@@ -12475,7 +12530,7 @@
       </c>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="6" t="s">
         <v>124</v>
       </c>
@@ -12495,7 +12550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="60">
+    <row r="66" spans="1:7">
       <c r="A66" s="6" t="s">
         <v>125</v>
       </c>
@@ -12513,7 +12568,7 @@
       </c>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:7" ht="26.25">
       <c r="A67" s="6" t="s">
         <v>127</v>
       </c>
@@ -12531,7 +12586,7 @@
       </c>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:7" ht="26.25">
       <c r="A68" s="6" t="s">
         <v>129</v>
       </c>
@@ -12549,7 +12604,7 @@
       </c>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="45">
+    <row r="69" spans="1:7">
       <c r="A69" s="6" t="s">
         <v>131</v>
       </c>
@@ -12565,7 +12620,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" s="6" t="s">
         <v>132</v>
       </c>
@@ -12583,8 +12638,8 @@
       </c>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="15" t="s">
         <v>466</v>
       </c>
       <c r="B71" s="12" t="s">
@@ -12595,8 +12650,8 @@
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="19" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="16" t="s">
         <v>133</v>
       </c>
       <c r="B72" s="7" t="s">
@@ -12611,8 +12666,8 @@
       </c>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="77.25">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:7" ht="77.25">
+      <c r="A73" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="7" t="s">
@@ -12629,8 +12684,8 @@
       </c>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="30">
-      <c r="A74" s="20" t="s">
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="17" t="s">
         <v>463</v>
       </c>
       <c r="B74" s="12"/>
@@ -12640,9 +12695,12 @@
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="30">
-      <c r="A75" s="20" t="s">
+      <c r="G74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" s="17" t="s">
         <v>465</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -12659,7 +12717,7 @@
       </c>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7">
       <c r="A76" s="6" t="s">
         <v>138</v>
       </c>
@@ -12677,8 +12735,8 @@
       </c>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="30">
-      <c r="A77" s="19" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="16" t="s">
         <v>140</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -12695,8 +12753,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="20" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -12715,7 +12773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30">
+    <row r="79" spans="1:7" ht="26.25">
       <c r="A79" s="6" t="s">
         <v>143</v>
       </c>
@@ -12735,7 +12793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="60">
+    <row r="80" spans="1:7">
       <c r="A80" s="6" t="s">
         <v>145</v>
       </c>
@@ -12753,7 +12811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="30">
+    <row r="81" spans="1:6">
       <c r="A81" s="6" t="s">
         <v>146</v>
       </c>
@@ -12769,7 +12827,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6" ht="26.25">
       <c r="A82" s="6" t="s">
         <v>147</v>
       </c>
@@ -12787,7 +12845,7 @@
       </c>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" ht="30">
+    <row r="83" spans="1:6">
       <c r="A83" s="6" t="s">
         <v>149</v>
       </c>
@@ -12844,7 +12902,7 @@
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -12863,7 +12921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="30">
+    <row r="87" spans="1:6" ht="26.25">
       <c r="A87" s="6" t="s">
         <v>156</v>
       </c>
@@ -12897,7 +12955,7 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="30">
+    <row r="89" spans="1:6">
       <c r="A89" s="6" t="s">
         <v>161</v>
       </c>
@@ -12913,7 +12971,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="45">
+    <row r="90" spans="1:6" ht="26.25">
       <c r="A90" s="6" t="s">
         <v>162</v>
       </c>
@@ -12951,7 +13009,7 @@
       </c>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="30">
+    <row r="92" spans="1:6" ht="26.25">
       <c r="A92" s="6" t="s">
         <v>166</v>
       </c>
@@ -12969,7 +13027,7 @@
       </c>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="75">
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="6" t="s">
         <v>168</v>
       </c>
@@ -12987,7 +13045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="45">
+    <row r="94" spans="1:6">
       <c r="A94" s="6" t="s">
         <v>169</v>
       </c>
@@ -13004,7 +13062,7 @@
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="16" t="s">
         <v>171</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -13021,7 +13079,7 @@
       </c>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" ht="45">
+    <row r="96" spans="1:6">
       <c r="A96" s="6" t="s">
         <v>172</v>
       </c>
@@ -13058,7 +13116,7 @@
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="51.75">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -13075,7 +13133,7 @@
       </c>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" ht="30">
+    <row r="99" spans="1:6">
       <c r="A99" s="6" t="s">
         <v>177</v>
       </c>
@@ -13093,7 +13151,7 @@
       </c>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" ht="30">
+    <row r="100" spans="1:6">
       <c r="A100" s="6" t="s">
         <v>178</v>
       </c>
@@ -13129,7 +13187,7 @@
       </c>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" ht="30">
+    <row r="102" spans="1:6">
       <c r="A102" s="6" t="s">
         <v>181</v>
       </c>
@@ -13147,7 +13205,7 @@
       </c>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" ht="30">
+    <row r="103" spans="1:6">
       <c r="A103" s="6" t="s">
         <v>183</v>
       </c>
@@ -13165,7 +13223,7 @@
       </c>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" ht="45">
+    <row r="104" spans="1:6" ht="26.25">
       <c r="A104" s="6" t="s">
         <v>184</v>
       </c>
@@ -13183,7 +13241,7 @@
       </c>
       <c r="F104" s="7"/>
     </row>
-    <row r="105" spans="1:6" ht="30">
+    <row r="105" spans="1:6" ht="26.25">
       <c r="A105" s="6" t="s">
         <v>186</v>
       </c>
@@ -13219,7 +13277,7 @@
       </c>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="6" t="s">
         <v>190</v>
       </c>
@@ -13238,7 +13296,7 @@
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="16" t="s">
         <v>192</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -13253,7 +13311,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" ht="30">
+    <row r="109" spans="1:6">
       <c r="A109" s="6" t="s">
         <v>193</v>
       </c>
@@ -13269,7 +13327,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:6" ht="45">
+    <row r="110" spans="1:6">
       <c r="A110" s="6" t="s">
         <v>195</v>
       </c>
@@ -13309,8 +13367,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:6" ht="26.25">
+      <c r="A112" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -13330,7 +13388,7 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -13347,7 +13405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="60">
+    <row r="114" spans="1:6">
       <c r="A114" s="6" t="s">
         <v>199</v>
       </c>
@@ -13365,7 +13423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="30">
+    <row r="115" spans="1:6">
       <c r="A115" s="6" t="s">
         <v>200</v>
       </c>
@@ -13383,7 +13441,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" ht="30">
+    <row r="116" spans="1:6">
       <c r="A116" s="6" t="s">
         <v>201</v>
       </c>
@@ -13402,7 +13460,7 @@
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" ht="39">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B117" s="7" t="s">
@@ -13419,7 +13477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="45">
+    <row r="118" spans="1:6">
       <c r="A118" s="6" t="s">
         <v>206</v>
       </c>
@@ -13457,8 +13515,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30">
-      <c r="A120" s="20" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B120" s="7" t="s">
@@ -13475,8 +13533,8 @@
       </c>
       <c r="F120" s="7"/>
     </row>
-    <row r="121" spans="1:6" ht="30">
-      <c r="A121" s="19" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="16" t="s">
         <v>212</v>
       </c>
       <c r="B121" s="7" t="s">
@@ -13496,7 +13554,7 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="16" t="s">
         <v>213</v>
       </c>
       <c r="B122" s="7" t="s">
@@ -13513,8 +13571,8 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="30">
-      <c r="A123" s="20" t="s">
+    <row r="123" spans="1:6" ht="26.25">
+      <c r="A123" s="17" t="s">
         <v>214</v>
       </c>
       <c r="B123" s="7" t="s">
@@ -13532,7 +13590,7 @@
       <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="16" t="s">
         <v>216</v>
       </c>
       <c r="B124" s="7" t="s">
@@ -13552,7 +13610,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="26.25">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="17" t="s">
         <v>217</v>
       </c>
       <c r="B125" s="7" t="s">
@@ -13569,7 +13627,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6" ht="45">
+    <row r="126" spans="1:6">
       <c r="A126" s="6" t="s">
         <v>218</v>
       </c>
@@ -13590,7 +13648,7 @@
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="17" t="s">
         <v>219</v>
       </c>
       <c r="B127" s="7" t="s">
@@ -13606,7 +13664,7 @@
       <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" ht="39">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B128" s="7" t="s">
@@ -13625,8 +13683,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30">
-      <c r="A129" s="19" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="16" t="s">
         <v>223</v>
       </c>
       <c r="B129" s="7" t="s">
@@ -13643,45 +13701,45 @@
       </c>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:6" ht="45">
-      <c r="A130" s="19" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="D130" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="15"/>
-    </row>
-    <row r="131" spans="1:6" ht="45">
-      <c r="A131" s="19" t="s">
+      <c r="D130" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="25"/>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-    </row>
-    <row r="133" spans="1:6" ht="30">
+      <c r="B132" s="25"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+    </row>
+    <row r="133" spans="1:6" ht="26.25">
       <c r="A133" s="6" t="s">
         <v>228</v>
       </c>
@@ -13717,7 +13775,7 @@
       </c>
       <c r="F134" s="7"/>
     </row>
-    <row r="135" spans="1:6" ht="45">
+    <row r="135" spans="1:6">
       <c r="A135" s="6" t="s">
         <v>231</v>
       </c>
@@ -13733,8 +13791,8 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:6" ht="45">
-      <c r="A136" s="20" t="s">
+    <row r="136" spans="1:6" ht="26.25">
+      <c r="A136" s="17" t="s">
         <v>232</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -13771,7 +13829,7 @@
       </c>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
         <v>236</v>
       </c>
@@ -13787,7 +13845,7 @@
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
         <v>237</v>
       </c>
@@ -13825,7 +13883,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="60">
+    <row r="141" spans="1:6">
       <c r="A141" s="6" t="s">
         <v>241</v>
       </c>
@@ -13843,7 +13901,7 @@
       </c>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:6" ht="45">
+    <row r="142" spans="1:6">
       <c r="A142" s="6" t="s">
         <v>242</v>
       </c>
@@ -13861,7 +13919,7 @@
       </c>
       <c r="F142" s="7"/>
     </row>
-    <row r="143" spans="1:6" ht="45">
+    <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
         <v>243</v>
       </c>
@@ -13913,7 +13971,7 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:6" ht="30">
+    <row r="146" spans="1:6" ht="26.25">
       <c r="A146" s="6" t="s">
         <v>247</v>
       </c>
@@ -13947,7 +14005,7 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" ht="30">
+    <row r="148" spans="1:6" ht="26.25">
       <c r="A148" s="6" t="s">
         <v>250</v>
       </c>
@@ -13965,7 +14023,7 @@
       </c>
       <c r="F148" s="7"/>
     </row>
-    <row r="149" spans="1:6" ht="45">
+    <row r="149" spans="1:6" ht="39">
       <c r="A149" s="6" t="s">
         <v>251</v>
       </c>
@@ -13983,7 +14041,7 @@
       </c>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6">
       <c r="A150" s="6" t="s">
         <v>253</v>
       </c>
@@ -13999,7 +14057,7 @@
       </c>
       <c r="F150" s="7"/>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
         <v>254</v>
       </c>
@@ -14017,7 +14075,7 @@
       </c>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:6" ht="30">
+    <row r="152" spans="1:6" ht="26.25">
       <c r="A152" s="6" t="s">
         <v>256</v>
       </c>
@@ -14035,7 +14093,7 @@
       </c>
       <c r="F152" s="7"/>
     </row>
-    <row r="153" spans="1:6" ht="30">
+    <row r="153" spans="1:6" ht="26.25">
       <c r="A153" s="6" t="s">
         <v>258</v>
       </c>
@@ -14055,8 +14113,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="60">
-      <c r="A154" s="20" t="s">
+    <row r="154" spans="1:6">
+      <c r="A154" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B154" s="7" t="s">
@@ -14073,7 +14131,7 @@
       </c>
       <c r="F154" s="7"/>
     </row>
-    <row r="155" spans="1:6" ht="30">
+    <row r="155" spans="1:6">
       <c r="A155" s="6" t="s">
         <v>261</v>
       </c>
@@ -14089,8 +14147,8 @@
       </c>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:6" ht="30">
-      <c r="A156" s="20" t="s">
+    <row r="156" spans="1:6">
+      <c r="A156" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -14107,7 +14165,7 @@
       </c>
       <c r="F156" s="7"/>
     </row>
-    <row r="157" spans="1:6" ht="45">
+    <row r="157" spans="1:6" ht="26.25">
       <c r="A157" s="6" t="s">
         <v>263</v>
       </c>
@@ -14143,7 +14201,7 @@
       </c>
       <c r="F158" s="7"/>
     </row>
-    <row r="159" spans="1:6" ht="45">
+    <row r="159" spans="1:6">
       <c r="A159" s="6" t="s">
         <v>267</v>
       </c>
@@ -14159,7 +14217,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:6" ht="30">
+    <row r="160" spans="1:6">
       <c r="A160" s="6" t="s">
         <v>269</v>
       </c>
@@ -14175,7 +14233,7 @@
       </c>
       <c r="F160" s="7"/>
     </row>
-    <row r="161" spans="1:6" ht="30">
+    <row r="161" spans="1:6" ht="26.25">
       <c r="A161" s="6" t="s">
         <v>270</v>
       </c>
@@ -14195,7 +14253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="60">
+    <row r="162" spans="1:6" ht="30">
       <c r="A162" s="6" t="s">
         <v>271</v>
       </c>
@@ -14249,7 +14307,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="60">
+    <row r="165" spans="1:6">
       <c r="A165" s="6" t="s">
         <v>277</v>
       </c>
@@ -14269,7 +14327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="45">
+    <row r="166" spans="1:6">
       <c r="A166" s="6" t="s">
         <v>278</v>
       </c>
@@ -14287,7 +14345,7 @@
       </c>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="1:6" ht="30">
+    <row r="167" spans="1:6">
       <c r="A167" s="6" t="s">
         <v>279</v>
       </c>
@@ -14305,7 +14363,7 @@
       </c>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:6" ht="30">
+    <row r="168" spans="1:6">
       <c r="A168" s="6" t="s">
         <v>280</v>
       </c>
@@ -14343,7 +14401,7 @@
       </c>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:6" ht="30">
+    <row r="170" spans="1:6">
       <c r="A170" s="6" t="s">
         <v>283</v>
       </c>
@@ -14361,7 +14419,7 @@
       </c>
       <c r="F170" s="7"/>
     </row>
-    <row r="171" spans="1:6" ht="30">
+    <row r="171" spans="1:6">
       <c r="A171" s="6" t="s">
         <v>284</v>
       </c>
@@ -14377,7 +14435,7 @@
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:6" ht="30">
+    <row r="172" spans="1:6">
       <c r="A172" s="6" t="s">
         <v>285</v>
       </c>
@@ -14395,7 +14453,7 @@
       </c>
       <c r="F172" s="7"/>
     </row>
-    <row r="173" spans="1:6" ht="30">
+    <row r="173" spans="1:6">
       <c r="A173" s="6" t="s">
         <v>286</v>
       </c>
@@ -14413,7 +14471,7 @@
       </c>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:6" ht="45">
+    <row r="174" spans="1:6" ht="39">
       <c r="A174" s="6" t="s">
         <v>287</v>
       </c>
@@ -14431,7 +14489,7 @@
       </c>
       <c r="F174" s="7"/>
     </row>
-    <row r="175" spans="1:6" ht="30">
+    <row r="175" spans="1:6">
       <c r="A175" s="6" t="s">
         <v>289</v>
       </c>
@@ -14450,7 +14508,7 @@
       <c r="F175" s="7"/>
     </row>
     <row r="176" spans="1:6" ht="39">
-      <c r="A176" s="18" t="s">
+      <c r="A176" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B176" s="7" t="s">
@@ -14470,7 +14528,7 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B177" s="7" t="s">
@@ -14489,7 +14547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="45">
+    <row r="178" spans="1:6">
       <c r="A178" s="6" t="s">
         <v>294</v>
       </c>
@@ -14507,7 +14565,7 @@
       </c>
       <c r="F178" s="7"/>
     </row>
-    <row r="179" spans="1:6" ht="30">
+    <row r="179" spans="1:6">
       <c r="A179" s="6" t="s">
         <v>295</v>
       </c>
@@ -14539,7 +14597,7 @@
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
     </row>
-    <row r="181" spans="1:6" ht="30">
+    <row r="181" spans="1:6" ht="26.25">
       <c r="A181" s="6" t="s">
         <v>298</v>
       </c>
@@ -14559,8 +14617,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="30">
-      <c r="A182" s="18" t="s">
+    <row r="182" spans="1:6">
+      <c r="A182" s="15" t="s">
         <v>301</v>
       </c>
       <c r="B182" s="7" t="s">
@@ -14577,7 +14635,7 @@
       </c>
       <c r="F182" s="7"/>
     </row>
-    <row r="183" spans="1:6" ht="30">
+    <row r="183" spans="1:6">
       <c r="A183" s="6" t="s">
         <v>302</v>
       </c>
@@ -14593,7 +14651,7 @@
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:6" ht="30">
+    <row r="184" spans="1:6">
       <c r="A184" s="6" t="s">
         <v>304</v>
       </c>
@@ -14611,7 +14669,7 @@
       </c>
       <c r="F184" s="7"/>
     </row>
-    <row r="185" spans="1:6" ht="30">
+    <row r="185" spans="1:6" ht="26.25">
       <c r="A185" s="6" t="s">
         <v>305</v>
       </c>
@@ -14629,7 +14687,7 @@
       </c>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:6" ht="64.5">
+    <row r="186" spans="1:6" ht="26.25">
       <c r="A186" s="10" t="s">
         <v>306</v>
       </c>
@@ -14647,7 +14705,7 @@
       </c>
       <c r="F186" s="7"/>
     </row>
-    <row r="187" spans="1:6" ht="45">
+    <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
         <v>308</v>
       </c>
@@ -14666,7 +14724,7 @@
       <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" ht="26.25">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B188" s="7" t="s">
@@ -14685,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30">
+    <row r="189" spans="1:6">
       <c r="A189" s="6" t="s">
         <v>311</v>
       </c>
@@ -14703,7 +14761,7 @@
       </c>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:6" ht="30">
+    <row r="190" spans="1:6" ht="26.25">
       <c r="A190" s="6" t="s">
         <v>312</v>
       </c>
@@ -14721,7 +14779,7 @@
       </c>
       <c r="F190" s="7"/>
     </row>
-    <row r="191" spans="1:6" ht="30">
+    <row r="191" spans="1:6">
       <c r="A191" s="6" t="s">
         <v>314</v>
       </c>
@@ -14739,8 +14797,8 @@
       </c>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:6" ht="45">
-      <c r="A192" s="20" t="s">
+    <row r="192" spans="1:6" ht="26.25">
+      <c r="A192" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B192" s="7" t="s">
@@ -14777,7 +14835,7 @@
       </c>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:6" ht="30">
+    <row r="194" spans="1:6">
       <c r="A194" s="6" t="s">
         <v>319</v>
       </c>
@@ -14813,7 +14871,7 @@
       </c>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:6" ht="30">
+    <row r="196" spans="1:6" ht="26.25">
       <c r="A196" s="6" t="s">
         <v>321</v>
       </c>
@@ -14833,7 +14891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30">
+    <row r="197" spans="1:6">
       <c r="A197" s="6" t="s">
         <v>322</v>
       </c>
@@ -14849,7 +14907,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:6" ht="30">
+    <row r="198" spans="1:6">
       <c r="A198" s="6" t="s">
         <v>323</v>
       </c>
@@ -14867,7 +14925,7 @@
       </c>
       <c r="F198" s="7"/>
     </row>
-    <row r="199" spans="1:6" ht="30">
+    <row r="199" spans="1:6" ht="26.25">
       <c r="A199" s="6" t="s">
         <v>325</v>
       </c>
@@ -14885,7 +14943,7 @@
       </c>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:6" ht="30">
+    <row r="200" spans="1:6">
       <c r="A200" s="6" t="s">
         <v>327</v>
       </c>
@@ -14903,7 +14961,7 @@
       </c>
       <c r="F200" s="7"/>
     </row>
-    <row r="201" spans="1:6" ht="30">
+    <row r="201" spans="1:6">
       <c r="A201" s="6" t="s">
         <v>328</v>
       </c>
@@ -14921,7 +14979,7 @@
       </c>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:6" ht="60">
+    <row r="202" spans="1:6">
       <c r="A202" s="6" t="s">
         <v>329</v>
       </c>
@@ -14939,7 +14997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="30">
+    <row r="203" spans="1:6">
       <c r="A203" s="6" t="s">
         <v>330</v>
       </c>
@@ -14975,7 +15033,7 @@
       </c>
       <c r="F204" s="7"/>
     </row>
-    <row r="205" spans="1:6" ht="30">
+    <row r="205" spans="1:6">
       <c r="A205" s="6" t="s">
         <v>332</v>
       </c>
@@ -15009,7 +15067,7 @@
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
     </row>
-    <row r="207" spans="1:6" ht="30">
+    <row r="207" spans="1:6">
       <c r="A207" s="6" t="s">
         <v>334</v>
       </c>
@@ -15047,7 +15105,7 @@
       </c>
       <c r="F208" s="7"/>
     </row>
-    <row r="209" spans="1:6" ht="45">
+    <row r="209" spans="1:6" ht="26.25">
       <c r="A209" s="6" t="s">
         <v>338</v>
       </c>
@@ -15081,7 +15139,7 @@
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
     </row>
-    <row r="211" spans="1:6" ht="30">
+    <row r="211" spans="1:6">
       <c r="A211" s="6" t="s">
         <v>341</v>
       </c>
@@ -15097,7 +15155,7 @@
       </c>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:6" ht="30">
+    <row r="212" spans="1:6" ht="26.25">
       <c r="A212" s="6" t="s">
         <v>342</v>
       </c>
@@ -15115,7 +15173,7 @@
       </c>
       <c r="F212" s="7"/>
     </row>
-    <row r="213" spans="1:6" ht="45">
+    <row r="213" spans="1:6">
       <c r="A213" s="6" t="s">
         <v>343</v>
       </c>
@@ -15152,19 +15210,19 @@
       <c r="F214" s="7"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="C215" s="17" t="s">
+      <c r="C215" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="15" t="s">
+      <c r="D215" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
@@ -15172,26 +15230,26 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="409.6">
-      <c r="A216" s="15"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
+      <c r="A216" s="25"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
       <c r="F216" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="409.6">
-      <c r="A217" s="15"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="17"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
       <c r="F217" s="7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="30">
+    <row r="218" spans="1:6">
       <c r="A218" s="6" t="s">
         <v>351</v>
       </c>
@@ -15246,7 +15304,7 @@
       <c r="F220" s="7"/>
     </row>
     <row r="221" spans="1:6" ht="115.5">
-      <c r="A221" s="18" t="s">
+      <c r="A221" s="15" t="s">
         <v>357</v>
       </c>
       <c r="B221" s="7" t="s">
@@ -15266,7 +15324,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" ht="90">
-      <c r="A222" s="18" t="s">
+      <c r="A222" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B222" s="7" t="s">
@@ -15325,7 +15383,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="26.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="7" t="s">
         <v>371</v>
       </c>
@@ -15343,7 +15401,7 @@
       </c>
       <c r="F225" s="7"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="6" t="s">
         <v>372</v>
       </c>
@@ -15381,7 +15439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="30">
+    <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
         <v>375</v>
       </c>
@@ -15765,7 +15823,7 @@
       <c r="G246" s="2"/>
     </row>
     <row r="247" spans="1:7" ht="65.25" thickBot="1">
-      <c r="A247" s="25" t="s">
+      <c r="A247" s="22" t="s">
         <v>439</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -15784,7 +15842,7 @@
       <c r="G247" s="2"/>
     </row>
     <row r="248" spans="1:7" ht="78" thickBot="1">
-      <c r="A248" s="24" t="s">
+      <c r="A248" s="21" t="s">
         <v>468</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -15826,7 +15884,7 @@
       <c r="G249" s="2"/>
     </row>
     <row r="250" spans="1:7" ht="103.5" thickBot="1">
-      <c r="A250" s="24" t="s">
+      <c r="A250" s="21" t="s">
         <v>449</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -15847,7 +15905,7 @@
       <c r="G250" s="2"/>
     </row>
     <row r="251" spans="1:7" ht="65.25" thickBot="1">
-      <c r="A251" s="26" t="s">
+      <c r="A251" s="23" t="s">
         <v>450</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -15908,22 +15966,22 @@
       <c r="G253" s="4"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="27" t="s">
+      <c r="A255" s="24" t="s">
         <v>469</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="F130:F132"/>
     <mergeCell ref="A215:A217"/>
     <mergeCell ref="B215:B217"/>
     <mergeCell ref="C215:C217"/>
     <mergeCell ref="D215:D217"/>
     <mergeCell ref="E215:E217"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="F130:F132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://en.top3d.co.kr/"/>

--- a/data/materials_generator/suppliers.xlsx
+++ b/data/materials_generator/suppliers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="475">
   <si>
     <t>TOP3D</t>
   </si>
@@ -9149,9 +9149,6 @@
     <t>Russia</t>
   </si>
   <si>
-    <t>NinjaTek, www.ninjatek.com NinjaFlex</t>
-  </si>
-  <si>
     <t>Monoprice.Com 3d printer Filament</t>
   </si>
   <si>
@@ -9165,6 +9162,12 @@
   </si>
   <si>
     <t>need to add NGEN product line</t>
+  </si>
+  <si>
+    <t>review to make sure prices okay and didn't miss items</t>
+  </si>
+  <si>
+    <t>NinjaTek, http://www.ninjaflex3d.com/, NinjaFlex</t>
   </si>
 </sst>
 </file>
@@ -9392,20 +9395,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11350,8 +11353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11381,11 +11384,11 @@
       <c r="F1" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="H1" s="25" t="s">
         <v>471</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -11621,8 +11624,8 @@
         <v>3</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="29" t="s">
-        <v>470</v>
+      <c r="G14" s="26" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25">
@@ -12470,11 +12473,11 @@
       <c r="F61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>473</v>
+      <c r="G61" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -12492,7 +12495,7 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="29"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="15" t="s">
@@ -12696,7 +12699,7 @@
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30">
@@ -13387,7 +13390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:8">
       <c r="A113" s="17" t="s">
         <v>198</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:8">
       <c r="A114" s="6" t="s">
         <v>199</v>
       </c>
@@ -13423,7 +13426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:8">
       <c r="A115" s="6" t="s">
         <v>200</v>
       </c>
@@ -13441,7 +13444,7 @@
       </c>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:8">
       <c r="A116" s="6" t="s">
         <v>201</v>
       </c>
@@ -13459,7 +13462,7 @@
       </c>
       <c r="F116" s="7"/>
     </row>
-    <row r="117" spans="1:6" ht="39">
+    <row r="117" spans="1:8" ht="39">
       <c r="A117" s="17" t="s">
         <v>203</v>
       </c>
@@ -13477,7 +13480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:8">
       <c r="A118" s="6" t="s">
         <v>206</v>
       </c>
@@ -13495,7 +13498,7 @@
       </c>
       <c r="F118" s="7"/>
     </row>
-    <row r="119" spans="1:6" ht="39">
+    <row r="119" spans="1:8" ht="39">
       <c r="A119" s="6" t="s">
         <v>209</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:8" ht="102.75">
       <c r="A120" s="17" t="s">
         <v>211</v>
       </c>
@@ -13532,8 +13535,14 @@
         <v>3</v>
       </c>
       <c r="F120" s="7"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="16" t="s">
         <v>212</v>
       </c>
@@ -13553,7 +13562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:8">
       <c r="A122" s="16" t="s">
         <v>213</v>
       </c>
@@ -13571,7 +13580,7 @@
       </c>
       <c r="F122" s="7"/>
     </row>
-    <row r="123" spans="1:6" ht="26.25">
+    <row r="123" spans="1:8" ht="26.25">
       <c r="A123" s="17" t="s">
         <v>214</v>
       </c>
@@ -13589,7 +13598,7 @@
       </c>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:8">
       <c r="A124" s="16" t="s">
         <v>216</v>
       </c>
@@ -13609,7 +13618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="26.25">
+    <row r="125" spans="1:8" ht="26.25">
       <c r="A125" s="17" t="s">
         <v>217</v>
       </c>
@@ -13627,7 +13636,7 @@
       </c>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:8">
       <c r="A126" s="6" t="s">
         <v>218</v>
       </c>
@@ -13647,7 +13656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:8">
       <c r="A127" s="17" t="s">
         <v>219</v>
       </c>
@@ -13663,7 +13672,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:6" ht="39">
+    <row r="128" spans="1:8" ht="39">
       <c r="A128" s="17" t="s">
         <v>221</v>
       </c>
@@ -13705,39 +13714,39 @@
       <c r="A130" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B130" s="25" t="s">
+      <c r="B130" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="25"/>
+      <c r="D130" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="28"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-      <c r="F131" s="25"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="25"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="28"/>
     </row>
     <row r="133" spans="1:6" ht="26.25">
       <c r="A133" s="6" t="s">
@@ -15210,19 +15219,19 @@
       <c r="F214" s="7"/>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B215" s="25" t="s">
+      <c r="B215" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="C215" s="26" t="s">
+      <c r="C215" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D215" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E215" s="25" t="s">
+      <c r="D215" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E215" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F215" s="7" t="s">
@@ -15230,21 +15239,21 @@
       </c>
     </row>
     <row r="216" spans="1:6" ht="409.6">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
+      <c r="A216" s="28"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="30"/>
+      <c r="D216" s="28"/>
+      <c r="E216" s="28"/>
       <c r="F216" s="7" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="409.6">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
+      <c r="A217" s="28"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="30"/>
+      <c r="D217" s="28"/>
+      <c r="E217" s="28"/>
       <c r="F217" s="7" t="s">
         <v>350</v>
       </c>
@@ -15843,7 +15852,7 @@
     </row>
     <row r="248" spans="1:7" ht="78" thickBot="1">
       <c r="A248" s="21" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>442</v>
@@ -15967,21 +15976,21 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
     <mergeCell ref="B130:B132"/>
     <mergeCell ref="C130:C132"/>
     <mergeCell ref="D130:D132"/>
     <mergeCell ref="E130:E132"/>
     <mergeCell ref="F130:F132"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:E217"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="http://en.top3d.co.kr/"/>
